--- a/tabelas/processos_siout_2021-03-02.xlsx
+++ b/tabelas/processos_siout_2021-03-02.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
